--- a/_site/Data/PregnancyandPost.xlsx
+++ b/_site/Data/PregnancyandPost.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmyescanlar/Dropbox (University of Oregon)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D22BE15-FC56-6A42-A58D-AEEB06CBBA84}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C150CC8-DEFE-004B-BB7D-7C9385F46CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3200" yWindow="4240" windowWidth="26840" windowHeight="15540" xr2:uid="{3E9CDE0F-FA6F-034A-9811-7F7D1FC042E9}"/>
+    <workbookView xWindow="1960" yWindow="1100" windowWidth="18960" windowHeight="15540" xr2:uid="{3E9CDE0F-FA6F-034A-9811-7F7D1FC042E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
   <si>
     <t>Question</t>
   </si>
@@ -167,6 +167,9 @@
   <si>
     <t>•Yes
 •No</t>
+  </si>
+  <si>
+    <t>59, 69</t>
   </si>
 </sst>
 </file>
@@ -574,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C63828C-283B-A940-8A21-DDF0804D85D3}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -613,8 +616,8 @@
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="5">
-        <v>59</v>
+      <c r="E2" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17">
@@ -625,8 +628,8 @@
         <v>7</v>
       </c>
       <c r="D3"/>
-      <c r="E3" s="5">
-        <v>59</v>
+      <c r="E3" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="85">
@@ -636,8 +639,8 @@
       <c r="B4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="5">
-        <v>59</v>
+      <c r="E4" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="85">
@@ -647,8 +650,8 @@
       <c r="B5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="5">
-        <v>59</v>
+      <c r="E5" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="136">
@@ -660,8 +663,8 @@
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="5">
-        <v>59</v>
+      <c r="E6" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="119">
@@ -682,8 +685,8 @@
       <c r="B8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="5">
-        <v>59</v>
+      <c r="E8" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="34">
@@ -693,8 +696,8 @@
       <c r="B9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="5">
-        <v>59</v>
+      <c r="E9" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="34">
@@ -704,8 +707,8 @@
       <c r="B10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="5">
-        <v>59</v>
+      <c r="E10" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="85">
@@ -715,8 +718,8 @@
       <c r="B11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="5">
-        <v>59</v>
+      <c r="E11" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="85">
@@ -726,8 +729,8 @@
       <c r="B12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="5">
-        <v>59</v>
+      <c r="E12" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="85">
@@ -737,8 +740,8 @@
       <c r="B13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="5">
-        <v>59</v>
+      <c r="E13" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="85">
@@ -750,8 +753,8 @@
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="5">
-        <v>59</v>
+      <c r="E14" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="85">
@@ -763,8 +766,8 @@
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="5">
-        <v>59</v>
+      <c r="E15" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="85">
@@ -774,8 +777,8 @@
       <c r="B16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="5">
-        <v>59</v>
+      <c r="E16" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="85">
@@ -785,8 +788,8 @@
       <c r="B17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="5">
-        <v>59</v>
+      <c r="E17" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="34">
@@ -796,8 +799,8 @@
       <c r="B18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="5">
-        <v>59</v>
+      <c r="E18" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="34">
@@ -807,8 +810,8 @@
       <c r="B19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="5">
-        <v>59</v>
+      <c r="E19" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="34">
@@ -818,8 +821,8 @@
       <c r="B20" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="5">
-        <v>59</v>
+      <c r="E20" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="34">
@@ -829,8 +832,8 @@
       <c r="B21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="5">
-        <v>59</v>
+      <c r="E21" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/_site/Data/PregnancyandPost.xlsx
+++ b/_site/Data/PregnancyandPost.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25019"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmyescanlar/Dropbox (University of Oregon)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmyescanlar/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C150CC8-DEFE-004B-BB7D-7C9385F46CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C6A7E5A-68D8-F540-8FEB-28BE74A457F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1960" yWindow="1100" windowWidth="18960" windowHeight="15540" xr2:uid="{3E9CDE0F-FA6F-034A-9811-7F7D1FC042E9}"/>
+    <workbookView xWindow="9420" yWindow="500" windowWidth="18960" windowHeight="15540" xr2:uid="{3E9CDE0F-FA6F-034A-9811-7F7D1FC042E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
   <si>
     <t>Question</t>
   </si>
@@ -36,15 +45,23 @@
     <t>Source</t>
   </si>
   <si>
-    <t>Occurrence</t>
-  </si>
-  <si>
     <t>Source Link</t>
   </si>
   <si>
+    <t>Dates Used</t>
+  </si>
+  <si>
     <t xml:space="preserve">Have you had a baby since March 2020 or are you currently pregnant? Select all that apply. </t>
   </si>
   <si>
+    <t>•Yes, I had a baby since March 2020
+•Yes, I am currently pregnant
+•No</t>
+  </si>
+  <si>
+    <t>05/25/2021-05/28/2021 08/04/2021-08/06/2021</t>
+  </si>
+  <si>
     <t xml:space="preserve">In what month was your baby born? </t>
   </si>
   <si>
@@ -54,10 +71,27 @@
     <t>You indicated that you have a had a baby SINCE March 2020. Thinking about the first two months after giving birth, how much did your physical health interfere with your ability to care for your baby?</t>
   </si>
   <si>
+    <t>•Not at all
+•Some
+•A fair amount
+•Quite a bit
+•A great deal</t>
+  </si>
+  <si>
     <t>Thinking about the first two months after giving birth, how much did your emotional well-being interfere with your ability to care for your baby?</t>
   </si>
   <si>
     <t xml:space="preserve">Some women use the following words to describe their feelings in the weeks and months after birth. Thinking back to the first two months after you gave birth, did you feel…? </t>
+  </si>
+  <si>
+    <t>•Confident
+•Unsure
+•Isolated
+•Supported
+•Messy
+•Organized
+•Rested
+•Tired</t>
   </si>
   <si>
     <t>Thinking about the past two weeks, how well do you think you are doing with each of the following?
@@ -65,6 +99,16 @@
 -Eating a healthy diet
 -Managing stress
 -Getting enough sleep</t>
+  </si>
+  <si>
+    <t>•Not at well
+•Well
+•Fairly well
+•Very well
+•Extremely well</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05/25/2021-05/28/2021 </t>
   </si>
   <si>
     <t>How well do the following statements describe your feelings about your baby?
@@ -81,81 +125,22 @@
 -Taking care of my baby is fun</t>
   </si>
   <si>
-    <t xml:space="preserve">Thinking back to the first six months of your baby’s life, what was the biggest challenge you faced? We are interested in as much detail as you care to share. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">How do you think the COVID-19 pandemic impacted your experience of pregnancy and having a newborn? </t>
-  </si>
-  <si>
-    <t>Open Ended</t>
-  </si>
-  <si>
-    <t>During my pregnancy...My provider(s) shared sufficient information about my care (e.g., tests and procedures) with me</t>
-  </si>
-  <si>
-    <t>During my pregnancy...My provider(s) provided sufficient information about prenatal health (e.g., exercise, nutrition) to me</t>
-  </si>
-  <si>
-    <t>During my pregnancy...My provider(s) prepared me well for labor and delivery</t>
-  </si>
-  <si>
-    <t>During my pregnancy...My provider(s) prepared me well for breastfeeding</t>
-  </si>
-  <si>
-    <t>During my pregnancy...My provider(s) spent sufficient time with me to answer my questions and listen</t>
-  </si>
-  <si>
-    <t>During my pregnancy...My prenatal care provider(s) respected me</t>
-  </si>
-  <si>
-    <t>During my pregnancy...I could always reach my provider(s) and/or someone in the office/clinic if I needed something</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If yes, what happened during your pregnancy? We are interested in as much detail as you care to share.     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">During your labor and delivery, did you personally experience racism, racial discrimination, or racial prejudice? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">If yes, what happened during your labor and delivery? We are interested in as much detail as you care to share.     </t>
-  </si>
-  <si>
-    <t>Over the course of your pregnancy, did you personally experience racism, racial discrimination, or racial prejudice?</t>
-  </si>
-  <si>
-    <t>•Yes, I had a baby since March 2020
-•Yes, I am currently pregnant
-•No</t>
-  </si>
-  <si>
-    <t>•Not at all
-•Some
-•A fair amount
-•Quite a bit
-•A great deal</t>
-  </si>
-  <si>
-    <t>•Confident
-•Unsure
-•Isolated
-•Supported
-•Messy
-•Organized
-•Rested
-•Tired</t>
-  </si>
-  <si>
-    <t>•Not at well
-•Well
-•Fairly well
-•Very well
-•Extremely well</t>
-  </si>
-  <si>
     <t>•Not at all
 •Not really
 •Most of the time
 •Always</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thinking back to the first six months of your baby’s life, what was the biggest challenge you faced? We are interested in as much detail as you care to share. </t>
+  </si>
+  <si>
+    <t>Open Ended</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How do you think the COVID-19 pandemic impacted your experience of pregnancy and having a newborn? </t>
+  </si>
+  <si>
+    <t>During my pregnancy...My provider(s) shared sufficient information about my care (e.g., tests and procedures) with me</t>
   </si>
   <si>
     <t>•Strongly Disagree
@@ -165,11 +150,38 @@
 •Strongly Agree</t>
   </si>
   <si>
+    <t>During my pregnancy...My provider(s) provided sufficient information about prenatal health (e.g., exercise, nutrition) to me</t>
+  </si>
+  <si>
+    <t>During my pregnancy...My provider(s) prepared me well for labor and delivery</t>
+  </si>
+  <si>
+    <t>During my pregnancy...My provider(s) prepared me well for breastfeeding</t>
+  </si>
+  <si>
+    <t>During my pregnancy...My provider(s) spent sufficient time with me to answer my questions and listen</t>
+  </si>
+  <si>
+    <t>During my pregnancy...I could always reach my provider(s) and/or someone in the office/clinic if I needed something</t>
+  </si>
+  <si>
+    <t>During my pregnancy...My prenatal care provider(s) respected me</t>
+  </si>
+  <si>
+    <t>Over the course of your pregnancy, did you personally experience racism, racial discrimination, or racial prejudice?</t>
+  </si>
+  <si>
     <t>•Yes
 •No</t>
   </si>
   <si>
-    <t>59, 69</t>
+    <t xml:space="preserve">If yes, what happened during your pregnancy? We are interested in as much detail as you care to share.     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">During your labor and delivery, did you personally experience racism, racial discrimination, or racial prejudice? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If yes, what happened during your labor and delivery? We are interested in as much detail as you care to share.     </t>
   </si>
 </sst>
 </file>
@@ -578,19 +590,19 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
   <cols>
-    <col min="1" max="1" width="79.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="79.875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.5" style="2" customWidth="1"/>
-    <col min="3" max="4" width="26.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="2"/>
+    <col min="3" max="4" width="26.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.875" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17">
+    <row r="1" spans="1:5" ht="17.100000000000001">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -601,239 +613,239 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="68">
+    </row>
+    <row r="2" spans="1:5" ht="63">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="7"/>
       <c r="E2" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="31.5">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3"/>
       <c r="E3" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="85">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="78.75">
       <c r="A4" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="85">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="78.75">
       <c r="A5" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="136">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="126">
       <c r="A6" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="7"/>
       <c r="E6" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="119">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="110.25">
       <c r="A7" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="5">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="221">
+        <v>16</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="204.75">
       <c r="A8" s="3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="31.5">
       <c r="A9" s="3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="31.5">
       <c r="A10" s="3" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="85">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="78.75">
       <c r="A11" s="3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="85">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="78.75">
       <c r="A12" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="85">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="78.75">
       <c r="A13" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="85">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="78.75">
       <c r="A14" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="7"/>
       <c r="E14" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="85">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="78.75">
       <c r="A15" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="7"/>
       <c r="E15" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="78.75">
+      <c r="A16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="78.75">
+      <c r="A17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="31.5">
+      <c r="A18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="31.5">
+      <c r="A19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="31.5">
+      <c r="A20" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="85">
-      <c r="A16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="85">
-      <c r="A17" s="3" t="s">
+      <c r="E20" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="31.5">
+      <c r="A21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="34">
-      <c r="A18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="34">
-      <c r="A19" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="34">
-      <c r="A20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="34">
-      <c r="A21" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="E21" s="5" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/_site/Data/PregnancyandPost.xlsx
+++ b/_site/Data/PregnancyandPost.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="50">
   <si>
     <t>Question</t>
   </si>
@@ -160,7 +160,7 @@
     <t xml:space="preserve">Thinking back to the first six months of your baby’s life, what was the biggest challenge you faced? We are interested in as much detail as you care to share. </t>
   </si>
   <si>
-    <t>Open Ended</t>
+    <t>Open ended response</t>
   </si>
   <si>
     <t xml:space="preserve">How do you think the COVID-19 pandemic impacted your experience of pregnancy and having a newborn? </t>
@@ -242,9 +242,6 @@
   </si>
   <si>
     <t>How did not having access to the resources and supports you needed during your pregnancy and post-partum affect you?</t>
-  </si>
-  <si>
-    <t>Free Response</t>
   </si>
 </sst>
 </file>
@@ -975,7 +972,7 @@
       <c r="A13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C13" s="9"/>
@@ -1009,7 +1006,7 @@
       <c r="A14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="9"/>
@@ -1315,7 +1312,7 @@
       <c r="A23" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C23" s="9"/>
@@ -1383,7 +1380,7 @@
       <c r="A25" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C25" s="9"/>
@@ -1520,7 +1517,7 @@
         <v>49</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>

--- a/_site/Data/PregnancyandPost.xlsx
+++ b/_site/Data/PregnancyandPost.xlsx
@@ -8,15 +8,15 @@
   <definedNames/>
   <calcPr/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7miaGV4PFknt+paQT8sMJaTupg0OOA=="/>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="bldvdWkIn/5RpF2iGhGZ7C6iIpANQ+nn/5LGVi/tiVM="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="54">
   <si>
     <t>Question</t>
   </si>
@@ -41,7 +41,7 @@
 • No</t>
   </si>
   <si>
-    <t>05/25/2021-05/28/2021 08/04/2021-08/06/2021 02/09/2023-02/15/2023</t>
+    <t>05/25/2021-05/28/2021 08/04/2021-08/06/2021 02/09/2023-02/15/2023 06/07/2023-06/14/2023</t>
   </si>
   <si>
     <t xml:space="preserve">In what month was your baby born? </t>
@@ -50,7 +50,7 @@
     <t>January - December</t>
   </si>
   <si>
-    <t>02/09/2023-02/15/2023</t>
+    <t>02/09/2023-02/15/2023 06/07/2023-06/14/2023</t>
   </si>
   <si>
     <t xml:space="preserve">In what year was your baby born? </t>
@@ -135,6 +135,26 @@
 • Fairly well
 • Very well
 • Extremely well</t>
+  </si>
+  <si>
+    <t>02/09/2023-02/15/2023</t>
+  </si>
+  <si>
+    <t>Thinking about the past month, how well do you think you are doing with each of the following? 
+- Getting enough exercise        
+- Eating a healthy diet
+- Managing stress
+- Getting enough sleep</t>
+  </si>
+  <si>
+    <t>• Not at all well 
+• Somewhat well        
+• Fairly well      
+• Very well   
+• Extremely well</t>
+  </si>
+  <si>
+    <t>06/07/2023-06/14/2023</t>
   </si>
   <si>
     <t>How well do the following statements describe your feelings about your baby?
@@ -910,7 +930,7 @@
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="8" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -935,16 +955,16 @@
       <c r="Z11" s="3"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="4" t="s">
-        <v>27</v>
+      <c r="A12" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="8" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -970,10 +990,10 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -1004,15 +1024,15 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="1" t="s">
-        <v>14</v>
+      <c r="E14" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1038,15 +1058,15 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="8" t="s">
-        <v>7</v>
+      <c r="E15" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -1072,10 +1092,10 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -1106,10 +1126,10 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -1140,13 +1160,13 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="7"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
       <c r="E18" s="8" t="s">
         <v>7</v>
       </c>
@@ -1174,10 +1194,10 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="7"/>
@@ -1208,13 +1228,13 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="7"/>
       <c r="E20" s="8" t="s">
         <v>7</v>
       </c>
@@ -1242,10 +1262,10 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -1276,10 +1296,10 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1310,10 +1330,10 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>30</v>
+      <c r="B23" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -1344,10 +1364,10 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>41</v>
+      <c r="B24" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -1378,10 +1398,10 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
-      <c r="B25" s="11" t="s">
-        <v>30</v>
+      <c r="B25" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -1411,16 +1431,16 @@
       <c r="Z25" s="3"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="5" t="s">
-        <v>45</v>
+      <c r="A26" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
-      <c r="E26" s="11" t="s">
-        <v>10</v>
+      <c r="E26" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -1446,14 +1466,14 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F27" s="3"/>
@@ -1480,14 +1500,14 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F28" s="3"/>
@@ -1514,14 +1534,14 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F29" s="3"/>
@@ -1547,11 +1567,17 @@
       <c r="Z29" s="3"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="4"/>
-      <c r="B30" s="9"/>
+      <c r="A30" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>34</v>
+      </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
+      <c r="E30" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
@@ -28846,6 +28872,34 @@
       <c r="Y1004" s="3"/>
       <c r="Z1004" s="3"/>
     </row>
+    <row r="1005" ht="15.75" customHeight="1">
+      <c r="A1005" s="4"/>
+      <c r="B1005" s="9"/>
+      <c r="C1005" s="9"/>
+      <c r="D1005" s="9"/>
+      <c r="E1005" s="9"/>
+      <c r="F1005" s="3"/>
+      <c r="G1005" s="3"/>
+      <c r="H1005" s="3"/>
+      <c r="I1005" s="3"/>
+      <c r="J1005" s="3"/>
+      <c r="K1005" s="3"/>
+      <c r="L1005" s="3"/>
+      <c r="M1005" s="3"/>
+      <c r="N1005" s="3"/>
+      <c r="O1005" s="3"/>
+      <c r="P1005" s="3"/>
+      <c r="Q1005" s="3"/>
+      <c r="R1005" s="3"/>
+      <c r="S1005" s="3"/>
+      <c r="T1005" s="3"/>
+      <c r="U1005" s="3"/>
+      <c r="V1005" s="3"/>
+      <c r="W1005" s="3"/>
+      <c r="X1005" s="3"/>
+      <c r="Y1005" s="3"/>
+      <c r="Z1005" s="3"/>
+    </row>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
